--- a/Overview and summary.xlsx
+++ b/Overview and summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7650"/>
+    <workbookView windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Truck_Route_line" sheetId="1" r:id="rId1"/>
@@ -5386,9 +5386,6 @@
       <c r="T50" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U49">
-    <extLst/>
-  </autoFilter>
   <sortState ref="A2:I48">
     <sortCondition ref="A2:A48"/>
   </sortState>
